--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/1.NhanBH/NBH220815_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/1.NhanBH/NBH220815_AnhTuanBG.xlsx
@@ -533,81 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,6 +551,81 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1000,92 +1000,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1108,662 +1108,662 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="24">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="24">
         <v>2</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="24">
         <v>3</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="24">
         <v>4</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="50"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="24">
         <v>5</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="50"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="24">
         <v>6</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="50"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="24">
         <v>7</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="24">
         <v>8</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="24">
         <v>868183038567819</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="24">
         <v>860906041208361</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="50"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="24">
         <v>10</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="24">
         <v>862549040693148</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="50"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="24">
         <v>11</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="24">
         <v>862549040693023</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="50"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="24">
         <v>12</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="26">
         <v>861881054165981</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="24">
         <v>13</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="26">
         <v>862205051170332</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="24">
         <v>14</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="26">
         <v>861881054163804</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="24">
         <v>15</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="26">
         <v>862205051216770</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="24">
         <v>16</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="26">
         <v>862205051163212</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="24">
         <v>17</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="26">
         <v>862205051175828</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="24">
         <v>18</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="26">
         <v>862205051172734</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="50"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="24">
         <v>19</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="24">
         <v>868183034637319</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="50"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="24">
         <v>20</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="24">
         <v>868183034658083</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="50"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="24">
         <v>21</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="49">
+      <c r="C31" s="24">
         <v>868183035934715</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="50"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
+      <c r="A32" s="24">
         <v>22</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="24">
         <v>868183034545041</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="50"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+      <c r="A33" s="24">
         <v>23</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="24">
         <v>867717030489638</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="50"/>
+      <c r="E33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+      <c r="A34" s="24">
         <v>24</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="24">
         <v>861694030672362</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="50"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+      <c r="A35" s="24">
         <v>25</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="24">
         <v>866104024722095</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="50"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+      <c r="A36" s="24">
         <v>26</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="24">
         <v>862631039279426</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="50"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+      <c r="A37" s="24">
         <v>27</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="24">
         <v>866104022160868</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="50"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49">
+      <c r="A38" s="24">
         <v>28</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="24">
         <v>862631034726785</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="50"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+      <c r="A39" s="24">
         <v>29</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="24">
         <v>861694031759614</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="50"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49">
+      <c r="A40" s="24">
         <v>30</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="24">
         <v>862631034711308</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="50"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49">
+      <c r="A41" s="24">
         <v>31</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="24">
         <v>866104022261765</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="50"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49">
+      <c r="A42" s="24">
         <v>32</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="24">
         <v>865904028275821</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="50"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
+      <c r="A43" s="24">
         <v>33</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="24">
         <v>865904027285292</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="50"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
+      <c r="A44" s="24">
         <v>34</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="24">
         <v>865904027260162</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="50"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
+      <c r="A45" s="24">
         <v>35</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="24">
         <v>864161020959719</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="50"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
-        <v>36</v>
-      </c>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="24">
+        <v>36</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="49">
+      <c r="C46" s="24">
         <v>866762029015565</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="50"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
+      <c r="A47" s="24">
         <v>37</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="52">
+      <c r="C47" s="27">
         <v>862118020955453</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="50"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+      <c r="A48" s="24">
         <v>38</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="54">
+      <c r="C48" s="29">
         <v>865904027284253</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="50"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49">
+      <c r="A49" s="24">
         <v>39</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="24">
         <v>866762025197243</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="50"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="41" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="46"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -1799,16 +1799,16 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
@@ -1836,13 +1836,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="B8:F8"/>
@@ -1851,6 +1844,13 @@
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
